--- a/average_satisfaction_divergent_g3.xlsx
+++ b/average_satisfaction_divergent_g3.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giorg\Downloads\multiagentsystems\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mtzortzi\Downloads\MA_proj\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C28BE290-F4EE-4FE1-85F1-CBE193BED667}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B598F825-3395-48D9-8FFF-782B72CDFCEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8880" xr2:uid="{8D1C8B66-6043-4F1F-83C9-6A94CB5B6101}"/>
+    <workbookView xWindow="3060" yWindow="1824" windowWidth="17280" windowHeight="8964" xr2:uid="{F1E05FF5-5F2E-4DB9-9AFC-74CE3643AE41}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Φύλλο1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -66,7 +66,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Θέμα του Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -377,7 +377,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA4B1670-FBCC-47E6-BE76-AF85BB8F4FC0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{408EEDC3-2B0B-4996-A5BC-85BA9A076FCB}">
   <dimension ref="A1:CV1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -388,304 +388,304 @@
   <sheetData>
     <row r="1" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A1">
+        <v>0.93029626209317828</v>
+      </c>
+      <c r="B1">
+        <v>1.0280469163849619</v>
+      </c>
+      <c r="C1">
+        <v>0.75965462186644173</v>
+      </c>
+      <c r="D1">
+        <v>0.8493825099695721</v>
+      </c>
+      <c r="E1">
         <v>0.87607840924093527</v>
       </c>
-      <c r="B1">
-        <v>1.0292211915684575</v>
-      </c>
-      <c r="C1">
-        <v>0.9702637031619108</v>
-      </c>
-      <c r="D1">
-        <v>0.91491736750033248</v>
-      </c>
-      <c r="E1">
-        <v>0.77400731280971091</v>
-      </c>
       <c r="F1">
-        <v>0.92493789422031625</v>
+        <v>0.86039351441840783</v>
       </c>
       <c r="G1">
-        <v>0.81366345658617667</v>
+        <v>1.0724775656940131</v>
       </c>
       <c r="H1">
-        <v>0.94278005058887804</v>
+        <v>0.77859998460550317</v>
       </c>
       <c r="I1">
-        <v>0.85014037444091284</v>
+        <v>0.87290247002263222</v>
       </c>
       <c r="J1">
-        <v>0.91221333460321952</v>
+        <v>0.78348406650696778</v>
       </c>
       <c r="K1">
-        <v>0.86433480484877079</v>
+        <v>1.0264233869903421</v>
       </c>
       <c r="L1">
-        <v>0.88233598208668329</v>
+        <v>0.86886995569792425</v>
       </c>
       <c r="M1">
-        <v>0.88917728882872393</v>
+        <v>0.95058110335987178</v>
       </c>
       <c r="N1">
-        <v>0.92588799581118586</v>
+        <v>0.9299167941401314</v>
       </c>
       <c r="O1">
+        <v>0.89323550914378957</v>
+      </c>
+      <c r="P1">
+        <v>0.86193425466564755</v>
+      </c>
+      <c r="Q1">
+        <v>0.85357121800768077</v>
+      </c>
+      <c r="R1">
+        <v>0.87269881553293094</v>
+      </c>
+      <c r="S1">
         <v>1.0530379795314764</v>
       </c>
-      <c r="P1">
-        <v>0.82764703251086469</v>
-      </c>
-      <c r="Q1">
-        <v>0.8758869673834242</v>
-      </c>
-      <c r="R1">
-        <v>0.86951594955024025</v>
-      </c>
-      <c r="S1">
-        <v>0.82609654048600822</v>
-      </c>
       <c r="T1">
-        <v>1.0855838661175863</v>
+        <v>1.059025879803198</v>
       </c>
       <c r="U1">
-        <v>0.88704967918577127</v>
+        <v>0.86551441494677872</v>
       </c>
       <c r="V1">
-        <v>0.74843223946109627</v>
+        <v>0.90336584979179868</v>
       </c>
       <c r="W1">
+        <v>0.89902618588647942</v>
+      </c>
+      <c r="X1">
+        <v>0.80240908766124552</v>
+      </c>
+      <c r="Y1">
+        <v>0.86096019188081407</v>
+      </c>
+      <c r="Z1">
+        <v>0.84555841098436924</v>
+      </c>
+      <c r="AA1">
+        <v>0.91462403350079613</v>
+      </c>
+      <c r="AB1">
+        <v>0.99502204167604624</v>
+      </c>
+      <c r="AC1">
+        <v>0.95529382342930991</v>
+      </c>
+      <c r="AD1">
+        <v>0.82988806263949721</v>
+      </c>
+      <c r="AE1">
+        <v>0.89840860885872864</v>
+      </c>
+      <c r="AF1">
+        <v>0.92466401864451941</v>
+      </c>
+      <c r="AG1">
+        <v>0.84724063030626329</v>
+      </c>
+      <c r="AH1">
+        <v>0.79363834166240566</v>
+      </c>
+      <c r="AI1">
+        <v>0.94256676213015789</v>
+      </c>
+      <c r="AJ1">
+        <v>0.91311330316952888</v>
+      </c>
+      <c r="AK1">
+        <v>0.7337433603242256</v>
+      </c>
+      <c r="AL1">
+        <v>0.92528062499016339</v>
+      </c>
+      <c r="AM1">
+        <v>0.98508889881011363</v>
+      </c>
+      <c r="AN1">
+        <v>0.8421357842267132</v>
+      </c>
+      <c r="AO1">
+        <v>0.83243959871554896</v>
+      </c>
+      <c r="AP1">
+        <v>1.0659298562460655</v>
+      </c>
+      <c r="AQ1">
+        <v>0.8337490055729796</v>
+      </c>
+      <c r="AR1">
+        <v>0.84147414996333048</v>
+      </c>
+      <c r="AS1">
+        <v>0.80374097279207068</v>
+      </c>
+      <c r="AT1">
+        <v>0.99561957439649629</v>
+      </c>
+      <c r="AU1">
+        <v>0.96190229434139596</v>
+      </c>
+      <c r="AV1">
+        <v>0.96226196707230394</v>
+      </c>
+      <c r="AW1">
+        <v>0.94063919673872565</v>
+      </c>
+      <c r="AX1">
+        <v>0.78614644387136146</v>
+      </c>
+      <c r="AY1">
+        <v>0.82850491470375731</v>
+      </c>
+      <c r="AZ1">
+        <v>0.85637223520072558</v>
+      </c>
+      <c r="BA1">
+        <v>0.83890155615326745</v>
+      </c>
+      <c r="BB1">
+        <v>0.85734561763261419</v>
+      </c>
+      <c r="BC1">
+        <v>0.93785986618679285</v>
+      </c>
+      <c r="BD1">
+        <v>0.93205677319224689</v>
+      </c>
+      <c r="BE1">
+        <v>0.94278005058887782</v>
+      </c>
+      <c r="BF1">
+        <v>0.84537363312301117</v>
+      </c>
+      <c r="BG1">
+        <v>0.86671282792547988</v>
+      </c>
+      <c r="BH1">
+        <v>0.92581758567052197</v>
+      </c>
+      <c r="BI1">
+        <v>0.94136376264274602</v>
+      </c>
+      <c r="BJ1">
+        <v>0.83702916034236363</v>
+      </c>
+      <c r="BK1">
+        <v>1.000716760585781</v>
+      </c>
+      <c r="BL1">
+        <v>0.84167061300666579</v>
+      </c>
+      <c r="BM1">
+        <v>0.93684662847730849</v>
+      </c>
+      <c r="BN1">
+        <v>0.93660267910912087</v>
+      </c>
+      <c r="BO1">
+        <v>0.88008287854197664</v>
+      </c>
+      <c r="BP1">
+        <v>1.0159446934597369</v>
+      </c>
+      <c r="BQ1">
+        <v>0.8375077076586066</v>
+      </c>
+      <c r="BR1">
+        <v>0.92822323171669718</v>
+      </c>
+      <c r="BS1">
+        <v>0.9204775821412291</v>
+      </c>
+      <c r="BT1">
+        <v>0.87088141036064681</v>
+      </c>
+      <c r="BU1">
+        <v>0.87250533480609138</v>
+      </c>
+      <c r="BV1">
+        <v>0.92124348806726108</v>
+      </c>
+      <c r="BW1">
+        <v>0.88667102618721172</v>
+      </c>
+      <c r="BX1">
+        <v>0.86285369823150404</v>
+      </c>
+      <c r="BY1">
+        <v>0.91531756011881948</v>
+      </c>
+      <c r="BZ1">
+        <v>0.89657921590657297</v>
+      </c>
+      <c r="CA1">
+        <v>0.90564617554225557</v>
+      </c>
+      <c r="CB1">
+        <v>0.77766652690027482</v>
+      </c>
+      <c r="CC1">
+        <v>1.0268788445931769</v>
+      </c>
+      <c r="CD1">
+        <v>0.86903624152193903</v>
+      </c>
+      <c r="CE1">
+        <v>1.047572723138569</v>
+      </c>
+      <c r="CF1">
+        <v>0.85552441169472926</v>
+      </c>
+      <c r="CG1">
+        <v>0.89033552080245237</v>
+      </c>
+      <c r="CH1">
+        <v>0.94750317661343675</v>
+      </c>
+      <c r="CI1">
+        <v>0.80667642218005675</v>
+      </c>
+      <c r="CJ1">
+        <v>0.85131772698742614</v>
+      </c>
+      <c r="CK1">
+        <v>0.8170522091813357</v>
+      </c>
+      <c r="CL1">
+        <v>0.85084323635311176</v>
+      </c>
+      <c r="CM1">
+        <v>0.86178795635796157</v>
+      </c>
+      <c r="CN1">
         <v>0.9960740977269239</v>
       </c>
-      <c r="X1">
-        <v>0.86107145144866704</v>
-      </c>
-      <c r="Y1">
-        <v>1.0670390721032275</v>
-      </c>
-      <c r="Z1">
-        <v>0.9574089938467405</v>
-      </c>
-      <c r="AA1">
-        <v>0.98691080602356551</v>
-      </c>
-      <c r="AB1">
-        <v>1.0341754247466883</v>
-      </c>
-      <c r="AC1">
-        <v>0.98920268514432474</v>
-      </c>
-      <c r="AD1">
-        <v>0.82944893781338846</v>
-      </c>
-      <c r="AE1">
-        <v>0.931558414427061</v>
-      </c>
-      <c r="AF1">
-        <v>0.88659305502862962</v>
-      </c>
-      <c r="AG1">
-        <v>0.84362184275600782</v>
-      </c>
-      <c r="AH1">
-        <v>0.97055427475076017</v>
-      </c>
-      <c r="AI1">
-        <v>0.97297788611995473</v>
-      </c>
-      <c r="AJ1">
-        <v>0.90642922038761065</v>
-      </c>
-      <c r="AK1">
-        <v>0.7591654507778276</v>
-      </c>
-      <c r="AL1">
-        <v>0.89842616949567633</v>
-      </c>
-      <c r="AM1">
-        <v>0.76029770259545137</v>
-      </c>
-      <c r="AN1">
-        <v>0.89570413484769851</v>
-      </c>
-      <c r="AO1">
-        <v>0.91526507168709692</v>
-      </c>
-      <c r="AP1">
-        <v>0.81793654749232902</v>
-      </c>
-      <c r="AQ1">
-        <v>0.84702267847746915</v>
-      </c>
-      <c r="AR1">
-        <v>0.93426377460736409</v>
-      </c>
-      <c r="AS1">
-        <v>0.83702916034236363</v>
-      </c>
-      <c r="AT1">
-        <v>0.8858011975451302</v>
-      </c>
-      <c r="AU1">
-        <v>0.85339412847194107</v>
-      </c>
-      <c r="AV1">
-        <v>0.93766280921597767</v>
-      </c>
-      <c r="AW1">
-        <v>0.87269881553293094</v>
-      </c>
-      <c r="AX1">
-        <v>0.82688926652770645</v>
-      </c>
-      <c r="AY1">
-        <v>0.86678419227645198</v>
-      </c>
-      <c r="AZ1">
-        <v>0.85012616946627606</v>
-      </c>
-      <c r="BA1">
-        <v>0.90674713448109512</v>
-      </c>
-      <c r="BB1">
-        <v>0.94515401654777775</v>
-      </c>
-      <c r="BC1">
-        <v>0.93274643853644434</v>
-      </c>
-      <c r="BD1">
-        <v>0.89471559647198884</v>
-      </c>
-      <c r="BE1">
-        <v>0.80216322880744984</v>
-      </c>
-      <c r="BF1">
-        <v>0.82822784283448558</v>
-      </c>
-      <c r="BG1">
-        <v>0.77011171596215977</v>
-      </c>
-      <c r="BH1">
-        <v>0.91419955057486846</v>
-      </c>
-      <c r="BI1">
-        <v>0.94634323917721253</v>
-      </c>
-      <c r="BJ1">
-        <v>0.88589622735790696</v>
-      </c>
-      <c r="BK1">
-        <v>0.9331123448469294</v>
-      </c>
-      <c r="BL1">
-        <v>0.87421444168466256</v>
-      </c>
-      <c r="BM1">
-        <v>0.82142454537103304</v>
-      </c>
-      <c r="BN1">
-        <v>0.96497755976707389</v>
-      </c>
-      <c r="BO1">
-        <v>1.0264233869903421</v>
-      </c>
-      <c r="BP1">
-        <v>0.9566269160801939</v>
-      </c>
-      <c r="BQ1">
-        <v>0.76798868100395623</v>
-      </c>
-      <c r="BR1">
-        <v>0.83287954917906726</v>
-      </c>
-      <c r="BS1">
-        <v>0.92841314631184224</v>
-      </c>
-      <c r="BT1">
-        <v>0.85001857862694052</v>
-      </c>
-      <c r="BU1">
-        <v>0.88008287854197664</v>
-      </c>
-      <c r="BV1">
-        <v>0.74472459520618839</v>
-      </c>
-      <c r="BW1">
-        <v>0.87342776300687652</v>
-      </c>
-      <c r="BX1">
-        <v>0.8156866610002278</v>
-      </c>
-      <c r="BY1">
-        <v>0.90550127867218078</v>
-      </c>
-      <c r="BZ1">
-        <v>0.682395260927805</v>
-      </c>
-      <c r="CA1">
-        <v>1.0381000093274468</v>
-      </c>
-      <c r="CB1">
-        <v>1.0117603369488997</v>
-      </c>
-      <c r="CC1">
-        <v>0.96190229434139618</v>
-      </c>
-      <c r="CD1">
-        <v>0.85453633686838781</v>
-      </c>
-      <c r="CE1">
-        <v>1.0362932189518486</v>
-      </c>
-      <c r="CF1">
-        <v>0.79043944239675545</v>
-      </c>
-      <c r="CG1">
-        <v>0.94540033262383871</v>
-      </c>
-      <c r="CH1">
-        <v>0.89033552080245237</v>
-      </c>
-      <c r="CI1">
-        <v>0.80700433505243241</v>
-      </c>
-      <c r="CJ1">
-        <v>0.80560837336413482</v>
-      </c>
-      <c r="CK1">
-        <v>1.1392193123569081</v>
-      </c>
-      <c r="CL1">
-        <v>0.87353403982727007</v>
-      </c>
-      <c r="CM1">
-        <v>0.89323550914378957</v>
-      </c>
-      <c r="CN1">
-        <v>0.99103450139719407</v>
-      </c>
       <c r="CO1">
-        <v>0.92233285272116938</v>
+        <v>0.92019682872279407</v>
       </c>
       <c r="CP1">
-        <v>0.90451836216759374</v>
+        <v>0.90909457484903267</v>
       </c>
       <c r="CQ1">
-        <v>0.88244226360542866</v>
+        <v>0.79109367576480838</v>
       </c>
       <c r="CR1">
-        <v>0.93675765782339615</v>
+        <v>0.83908486970146168</v>
       </c>
       <c r="CS1">
-        <v>0.99561957439649629</v>
+        <v>0.95233732333663867</v>
       </c>
       <c r="CT1">
-        <v>0.84766069958261903</v>
+        <v>0.93887684144951999</v>
       </c>
       <c r="CU1">
-        <v>0.8817004262678223</v>
+        <v>0.93807879029379726</v>
       </c>
       <c r="CV1">
-        <v>0.72932673537050186</v>
+        <v>0.9578054637394664</v>
       </c>
     </row>
   </sheetData>
